--- a/zdos.xlsx
+++ b/zdos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Documents\Visual Studio 2022\Projects\Valhalla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CEF699-2721-433C-BA1C-F22F6632D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEA62C-95DF-419A-A2C4-E72341BE26D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{85EC0725-EB8B-440D-93FF-CE301E61D9AF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="350">
   <si>
     <t>name</t>
   </si>
@@ -1137,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1146,6 +1146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,7 +2890,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D8F59D4-B467-40C6-AD06-17F2FF2120CA}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:A244" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:A433" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="156">
@@ -3049,7 +3052,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="5"/>
         <item x="7"/>
@@ -3251,22 +3254,32 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="2"/>
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="243">
+  <rowItems count="432">
     <i>
       <x/>
     </i>
     <i r="1">
       <x v="10"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="18"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="105"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
@@ -3274,29 +3287,56 @@
     <i r="1">
       <x v="7"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="22"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="28"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="31"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="69"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="95"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="96"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="132"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="133"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="2"/>
@@ -3304,8 +3344,14 @@
     <i r="1">
       <x v="93"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="94"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i>
       <x v="3"/>
@@ -3313,14 +3359,26 @@
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="79"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="85"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="107"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="4"/>
@@ -3328,26 +3386,50 @@
     <i r="1">
       <x v="30"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="37"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="85"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="90"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="92"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="141"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="148"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
     </i>
     <i>
       <x v="5"/>
@@ -3355,14 +3437,23 @@
     <i r="1">
       <x v="88"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
       <x v="72"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="76"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -3370,14 +3461,29 @@
     <i r="1">
       <x v="60"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="126"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="127"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="136"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="8"/>
@@ -3385,11 +3491,20 @@
     <i r="1">
       <x v="39"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="84"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="149"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
@@ -3397,8 +3512,14 @@
     <i r="1">
       <x v="32"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="128"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
     </i>
     <i>
       <x v="10"/>
@@ -3406,29 +3527,50 @@
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
     <i r="1">
       <x v="137"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i>
       <x v="12"/>
     </i>
     <i r="1">
       <x v="24"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="25"/>
     </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
     <i r="1">
       <x v="26"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="27"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="116"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="13"/>
@@ -3436,8 +3578,17 @@
     <i r="1">
       <x v="40"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="136"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="14"/>
@@ -3445,8 +3596,14 @@
     <i r="1">
       <x v="60"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="79"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="15"/>
@@ -3454,14 +3611,23 @@
     <i r="1">
       <x v="132"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i>
       <x v="16"/>
     </i>
     <i r="1">
       <x v="38"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i r="1">
       <x v="115"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
     </i>
     <i>
       <x v="17"/>
@@ -3469,14 +3635,23 @@
     <i r="1">
       <x v="145"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i>
       <x v="18"/>
     </i>
     <i r="1">
       <x v="66"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="67"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
     </i>
     <i>
       <x v="19"/>
@@ -3484,44 +3659,83 @@
     <i r="1">
       <x v="14"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="20"/>
     </i>
     <i r="1">
       <x v="8"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="9"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="11"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="12"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="13"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="41"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="42"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="53"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="111"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="133"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="134"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="153"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="21"/>
@@ -3529,14 +3743,23 @@
     <i r="1">
       <x v="76"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i>
       <x v="22"/>
     </i>
     <i r="1">
       <x v="20"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i r="1">
       <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="23"/>
@@ -3544,14 +3767,23 @@
     <i r="1">
       <x v="86"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i>
       <x v="24"/>
     </i>
     <i r="1">
       <x v="87"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="121"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="25"/>
@@ -3559,35 +3791,56 @@
     <i r="1">
       <x v="129"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i>
       <x v="26"/>
     </i>
     <i r="1">
       <x v="44"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i>
       <x v="27"/>
     </i>
     <i r="1">
       <x v="64"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="28"/>
     </i>
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i>
       <x v="29"/>
     </i>
     <i r="1">
       <x v="47"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="58"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="125"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="30"/>
@@ -3595,20 +3848,32 @@
     <i r="1">
       <x v="101"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="31"/>
     </i>
     <i r="1">
       <x v="104"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i>
       <x v="32"/>
     </i>
     <i r="1">
       <x v="98"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="99"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="33"/>
@@ -3616,8 +3881,14 @@
     <i r="1">
       <x v="75"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="77"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="34"/>
@@ -3625,56 +3896,110 @@
     <i r="1">
       <x v="17"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i>
       <x v="35"/>
     </i>
     <i r="1">
       <x v="100"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i>
       <x v="36"/>
     </i>
     <i r="1">
       <x v="35"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="45"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="46"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="48"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="54"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="55"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="56"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="70"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="102"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="103"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="110"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="135"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="138"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="154"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="37"/>
@@ -3682,17 +4007,32 @@
     <i r="1">
       <x v="43"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="57"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="97"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="108"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="109"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i>
       <x v="38"/>
@@ -3700,8 +4040,14 @@
     <i r="1">
       <x v="89"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="106"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="39"/>
@@ -3709,23 +4055,44 @@
     <i r="1">
       <x v="50"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="51"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="52"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="68"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="71"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="118"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="152"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="40"/>
@@ -3733,14 +4100,23 @@
     <i r="1">
       <x v="3"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i>
       <x v="41"/>
     </i>
     <i r="1">
       <x v="78"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="132"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
     </i>
     <i>
       <x v="42"/>
@@ -3748,11 +4124,20 @@
     <i r="1">
       <x/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i r="1">
       <x v="135"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="150"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
     </i>
     <i>
       <x v="43"/>
@@ -3760,14 +4145,26 @@
     <i r="1">
       <x v="120"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i>
       <x v="44"/>
     </i>
     <i r="1">
       <x v="59"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="117"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="45"/>
@@ -3775,8 +4172,14 @@
     <i r="1">
       <x v="49"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="133"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="46"/>
@@ -3784,14 +4187,23 @@
     <i r="1">
       <x v="150"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i>
       <x v="47"/>
     </i>
     <i r="1">
       <x v="33"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="147"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i>
       <x v="48"/>
@@ -3799,32 +4211,65 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="2"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="29"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="34"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="60"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="74"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="112"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="130"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="131"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="136"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="49"/>
@@ -3832,23 +4277,41 @@
     <i r="1">
       <x v="23"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i>
       <x v="50"/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="6"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="142"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="143"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="144"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="51"/>
@@ -3856,29 +4319,50 @@
     <i r="1">
       <x v="140"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i>
       <x v="52"/>
     </i>
     <i r="1">
       <x v="146"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i>
       <x v="53"/>
     </i>
     <i r="1">
       <x v="73"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="93"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="94"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="132"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="149"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="54"/>
@@ -3886,65 +4370,122 @@
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="55"/>
     </i>
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="56"/>
     </i>
     <i r="1">
       <x v="36"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="39"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="61"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="62"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="65"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="80"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="81"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="82"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="83"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="84"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="91"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="113"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="114"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="122"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="123"/>
     </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="124"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="151"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="57"/>
@@ -3952,8 +4493,14 @@
     <i r="1">
       <x v="63"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="139"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="58"/>
@@ -3961,14 +4508,29 @@
     <i r="1">
       <x v="119"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i>
       <x v="59"/>
     </i>
     <i r="1">
       <x v="4"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="60"/>
@@ -3976,11 +4538,20 @@
     <i r="1">
       <x v="16"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="19"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -7355,15 +7926,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8920C4-4C66-477D-B64E-D8050BF27F94}">
-  <dimension ref="A1:A244"/>
+  <dimension ref="A1:A433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
@@ -7537,1207 +8106,2152 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>317</v>
+      <c r="A4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
+      <c r="A6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>298</v>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>299</v>
+      <c r="A9" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>214</v>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>100</v>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>266</v>
+      <c r="A15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>270</v>
+      <c r="A16" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>269</v>
+      <c r="A17" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
+      <c r="A19" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>272</v>
+      <c r="A21" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
+      <c r="A23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
+      <c r="A24" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>218</v>
+      <c r="A25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
+      <c r="A27" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>134</v>
+      <c r="A28" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>13</v>
+      <c r="A30" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>129</v>
+      <c r="A32" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>136</v>
+      <c r="A35" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>320</v>
+      <c r="A37" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>16</v>
+      <c r="A38" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>15</v>
+      <c r="A39" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>137</v>
+      <c r="A41" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>143</v>
+      <c r="A42" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>276</v>
+      <c r="A43" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>183</v>
+      <c r="A44" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>275</v>
+      <c r="A46" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>27</v>
+      <c r="A47" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>277</v>
+      <c r="A48" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>50</v>
+      <c r="A50" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>139</v>
+      <c r="A52" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>108</v>
+      <c r="A54" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>131</v>
+      <c r="A56" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>141</v>
+      <c r="A58" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>140</v>
+      <c r="A59" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>144</v>
+      <c r="A60" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>322</v>
+      <c r="A61" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>143</v>
+      <c r="A62" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>52</v>
+      <c r="A63" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>15</v>
+      <c r="A64" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>110</v>
+      <c r="A66" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>98</v>
+      <c r="A67" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>30</v>
+      <c r="A68" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>29</v>
+      <c r="A69" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>35</v>
+      <c r="A71" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>34</v>
+      <c r="A72" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>113</v>
+      <c r="A73" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>114</v>
+      <c r="A74" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>259</v>
+      <c r="A76" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>258</v>
+      <c r="A77" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>57</v>
+      <c r="A78" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>282</v>
+      <c r="A79" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>146</v>
+      <c r="A81" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>147</v>
+      <c r="A83" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>283</v>
+      <c r="A84" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>56</v>
+      <c r="A86" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>266</v>
+      <c r="A88" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>148</v>
+      <c r="A89" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>327</v>
+      <c r="A91" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>320</v>
+      <c r="A92" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>21</v>
+      <c r="A93" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>19</v>
+      <c r="A94" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>92</v>
+      <c r="A95" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>308</v>
+      <c r="A96" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>307</v>
+      <c r="A97" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>152</v>
+      <c r="A98" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>151</v>
+      <c r="A99" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>285</v>
+      <c r="A101" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>310</v>
+      <c r="A103" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>309</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>60</v>
+      <c r="A105" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>59</v>
+      <c r="A106" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>328</v>
+      <c r="A107" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>8</v>
+      <c r="A108" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>220</v>
+      <c r="A109" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>219</v>
+      <c r="A110" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>222</v>
+      <c r="A111" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>224</v>
+      <c r="A112" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>227</v>
+      <c r="A113" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>226</v>
+      <c r="A114" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>155</v>
+      <c r="A115" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>154</v>
+      <c r="A116" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>286</v>
+      <c r="A119" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>158</v>
+      <c r="A122" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>302</v>
+      <c r="A123" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>301</v>
+      <c r="A124" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>287</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>63</v>
+      <c r="A127" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>162</v>
+      <c r="A128" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>241</v>
+      <c r="A130" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>161</v>
+      <c r="A132" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>160</v>
+      <c r="A133" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>232</v>
+      <c r="A135" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>289</v>
+      <c r="A136" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>238</v>
+      <c r="A138" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>65</v>
+      <c r="A140" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>164</v>
+      <c r="A142" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>333</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>247</v>
+      <c r="A144" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>291</v>
+      <c r="A146" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>166</v>
+      <c r="A148" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>293</v>
+      <c r="A150" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>68</v>
+      <c r="A151" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>169</v>
+      <c r="A152" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>167</v>
+      <c r="A154" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>115</v>
+      <c r="A156" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>70</v>
+      <c r="A158" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>171</v>
+      <c r="A159" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>170</v>
+      <c r="A160" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>98</v>
+      <c r="A163" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>62</v>
+      <c r="A166" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>173</v>
+      <c r="A168" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>172</v>
+      <c r="A169" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>73</v>
+      <c r="A170" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>174</v>
+      <c r="A171" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>72</v>
+      <c r="A172" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>252</v>
+      <c r="A173" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>251</v>
+      <c r="A174" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>42</v>
+      <c r="A176" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>37</v>
+      <c r="A177" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>335</v>
+      <c r="A178" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>337</v>
+      <c r="A179" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>334</v>
+      <c r="A180" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>76</v>
+      <c r="A181" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>341</v>
+      <c r="A182" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>338</v>
+      <c r="A183" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>78</v>
+      <c r="A185" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>15</v>
+      <c r="A186" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>176</v>
+      <c r="A188" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>178</v>
+      <c r="A189" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>143</v>
+      <c r="A191" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>305</v>
+      <c r="A192" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>304</v>
+      <c r="A193" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>81</v>
+      <c r="A194" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>263</v>
+      <c r="A195" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>261</v>
+      <c r="A196" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>296</v>
+      <c r="A198" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>80</v>
+      <c r="A199" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>345</v>
+      <c r="A200" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>344</v>
+      <c r="A201" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>119</v>
+      <c r="A204" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>269</v>
+      <c r="A206" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>319</v>
+      <c r="A207" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>275</v>
+      <c r="A209" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>83</v>
+      <c r="A210" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>8</v>
+      <c r="A211" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>121</v>
+      <c r="A214" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
-        <v>181</v>
+      <c r="A215" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>120</v>
+      <c r="A217" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>185</v>
+      <c r="A218" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>189</v>
+      <c r="A220" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>192</v>
+      <c r="A222" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>195</v>
+      <c r="A224" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>199</v>
+      <c r="A226" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>203</v>
+      <c r="A228" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>205</v>
+      <c r="A229" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>206</v>
+      <c r="A231" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>85</v>
+      <c r="A232" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>89</v>
+      <c r="A234" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>126</v>
+      <c r="A235" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>125</v>
+      <c r="A236" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>95</v>
+      <c r="A237" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>94</v>
+      <c r="A238" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>24</v>
+      <c r="A240" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>128</v>
+      <c r="A242" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
         <v>349</v>
       </c>
     </row>

--- a/zdos.xlsx
+++ b/zdos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Documents\Visual Studio 2022\Projects\Valhalla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEA62C-95DF-419A-A2C4-E72341BE26D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B0D3F-FC0A-43D3-89D6-8271B8E47280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{85EC0725-EB8B-440D-93FF-CE301E61D9AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{85EC0725-EB8B-440D-93FF-CE301E61D9AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="532" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="359">
   <si>
     <t>name</t>
   </si>
@@ -1090,6 +1090,33 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>health of structure</t>
+  </si>
+  <si>
+    <t>sneaking loudness for stealth</t>
+  </si>
+  <si>
+    <t>unmount saddle</t>
+  </si>
+  <si>
+    <t>mount saddle</t>
+  </si>
+  <si>
+    <t>control ship wheel</t>
+  </si>
+  <si>
+    <t>for stealth</t>
+  </si>
+  <si>
+    <t>integer honey amount</t>
+  </si>
+  <si>
+    <t>fractional honey amount</t>
   </si>
 </sst>
 </file>
@@ -2889,7 +2916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D8F59D4-B467-40C6-AD06-17F2FF2120CA}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D8F59D4-B467-40C6-AD06-17F2FF2120CA}" name="PivotTable1" cacheId="532" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A433" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4869,10 +4896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9D26C7-6750-4DC8-B489-891ACAC85089}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,9 +4908,11 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4895,11 +4925,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4909,11 +4939,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4923,11 +4956,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4937,11 +4973,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4951,11 +4987,14 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4965,11 +5004,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4982,11 +5021,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4999,11 +5038,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5016,8 +5055,11 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -5031,7 +5073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5045,7 +5087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -5059,7 +5101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5072,8 +5114,11 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5086,8 +5131,11 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -5100,8 +5148,11 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -5115,7 +5166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -5129,7 +5180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5143,7 +5194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5157,7 +5208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5170,8 +5221,11 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -5199,7 +5253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -5213,7 +5267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -5241,7 +5295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -5255,7 +5309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -5269,7 +5323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -5283,7 +5337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -5297,7 +5351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -5311,7 +5365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -5325,7 +5379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -5784,7 +5838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -5798,7 +5852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -5812,7 +5866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -5826,7 +5880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -5840,7 +5894,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -5854,7 +5908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -5868,7 +5922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -5882,7 +5936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -5893,7 +5947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -5903,8 +5957,11 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -5915,7 +5972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -5926,7 +5983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -5937,7 +5994,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -5948,7 +6005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -5959,7 +6016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5970,7 +6027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -7916,7 +7973,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B232" xr:uid="{F9A92C04-C0A6-4871-B3E1-1DDA1810A9D8}">
-      <formula1>$F$1:$F$8</formula1>
+      <formula1>$L$2:$L$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7928,7 +7985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8920C4-4C66-477D-B64E-D8050BF27F94}">
   <dimension ref="A1:A433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0"/>
+    <sheetView topLeftCell="A384" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10261,21 +10318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA624359A1780D4681F95367A75801C0" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7436fcb4cde14895848a9cc32efd3be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e85ff118-c242-41e0-8f4a-9bb86cac4a91" xmlns:ns4="00629e0c-8d83-424c-baee-ea53d7cb8679" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d9aec8e92d24ba18fa9b0391479fb10" ns3:_="" ns4:_="">
     <xsd:import namespace="e85ff118-c242-41e0-8f4a-9bb86cac4a91"/>
@@ -10446,24 +10488,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEE81DE-08A9-469F-9D09-2CE2B007DC7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33384CE5-F862-4B3E-B05B-F207834BE86F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36908183-9309-4BB8-8040-724D9FFDF49E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10480,4 +10520,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33384CE5-F862-4B3E-B05B-F207834BE86F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEE81DE-08A9-469F-9D09-2CE2B007DC7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>